--- a/sync_commcare_assets/investigation-source-target-mappings.xlsx
+++ b/sync_commcare_assets/investigation-source-target-mappings.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="investigation" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Data Source</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>closed</t>
-  </si>
-  <si>
-    <t>properties.closed</t>
   </si>
   <si>
     <t>closed_by_username</t>
@@ -199,15 +196,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -562,146 +559,146 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
         <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
         <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
         <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
         <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
         <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>